--- a/data/trans_orig/P16B01-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16B01-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B360090-E9C5-489B-81CC-7C58B6580BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C9DBE70-BC56-42E6-96A6-33F9FA4BEA80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AFF35C1A-E0AD-4D34-B8AA-A266E6F89FC8}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C1574B33-6238-4FDE-975E-5CC8548EAF89}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="393">
   <si>
     <t>Población según si las medicinas para el catarro fueron recetadas por el médico en 2007 (Tasa respuesta: 6,65%)</t>
   </si>
@@ -76,676 +76,682 @@
     <t>59,55%</t>
   </si>
   <si>
-    <t>42,81%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
   </si>
   <si>
     <t>70,21%</t>
   </si>
   <si>
+    <t>50,51%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>69,63%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>61,74%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>54,15%</t>
+  </si>
+  <si>
+    <t>75,38%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>47,43%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>53,78%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>57,85%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>73,49%</t>
+  </si>
+  <si>
+    <t>58,78%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>73,4%</t>
+  </si>
+  <si>
+    <t>62,08%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>68,63%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>52,06%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>72,28%</t>
+  </si>
+  <si>
+    <t>56,23%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>53,54%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>82,52%</t>
+  </si>
+  <si>
+    <t>60,94%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>39,06%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>78,8%</t>
+  </si>
+  <si>
+    <t>64,84%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>75,73%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>75,17%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>66,99%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si las medicinas para el catarro fueron recetadas por el médico en 2012 (Tasa respuesta: 8,81%)</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>56,4%</t>
+  </si>
+  <si>
+    <t>64,56%</t>
+  </si>
+  <si>
+    <t>50,34%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>64,0%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>49,66%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>57,01%</t>
+  </si>
+  <si>
+    <t>60,72%</t>
+  </si>
+  <si>
+    <t>47,04%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>58,14%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>71,1%</t>
+  </si>
+  <si>
+    <t>59,5%</t>
+  </si>
+  <si>
+    <t>50,44%</t>
+  </si>
+  <si>
+    <t>68,08%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>52,96%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>55,5%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>49,56%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>80,11%</t>
+  </si>
+  <si>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>75,55%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>48,71%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>64,03%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>77,66%</t>
+  </si>
+  <si>
+    <t>68,15%</t>
+  </si>
+  <si>
     <t>52,51%</t>
   </si>
   <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>64,44%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>57,19%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>66,05%</t>
+  </si>
+  <si>
+    <t>54,44%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
   </si>
   <si>
     <t>47,49%</t>
   </si>
   <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>69,63%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>47,16%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
-  </si>
-  <si>
-    <t>74,61%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>52,84%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>56,76%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>73,49%</t>
-  </si>
-  <si>
-    <t>57,72%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>73,4%</t>
-  </si>
-  <si>
-    <t>62,18%</t>
-  </si>
-  <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>43,24%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>42,28%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>68,63%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>55,6%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>72,28%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>55,08%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>82,52%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>71,24%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
-  </si>
-  <si>
-    <t>66,29%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>75,17%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>66,96%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si las medicinas para el catarro fueron recetadas por el médico en 2012 (Tasa respuesta: 8,81%)</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>57,9%</t>
-  </si>
-  <si>
-    <t>64,56%</t>
-  </si>
-  <si>
-    <t>50,01%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
-  </si>
-  <si>
-    <t>54,21%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>63,79%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>42,1%</t>
-  </si>
-  <si>
-    <t>74,81%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>49,99%</t>
-  </si>
-  <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>60,72%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>73,17%</t>
-  </si>
-  <si>
-    <t>58,14%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
-  </si>
-  <si>
-    <t>59,5%</t>
-  </si>
-  <si>
-    <t>49,95%</t>
-  </si>
-  <si>
-    <t>68,44%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>51,91%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>55,39%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>50,05%</t>
-  </si>
-  <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>68,6%</t>
-  </si>
-  <si>
-    <t>54,1%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>57,59%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>48,55%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>64,03%</t>
-  </si>
-  <si>
-    <t>47,15%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
-  </si>
-  <si>
-    <t>68,15%</t>
-  </si>
-  <si>
-    <t>52,39%</t>
-  </si>
-  <si>
-    <t>80,37%</t>
-  </si>
-  <si>
-    <t>66,05%</t>
-  </si>
-  <si>
-    <t>55,06%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>52,85%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>47,61%</t>
-  </si>
-  <si>
     <t>33,95%</t>
   </si>
   <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>45,56%</t>
   </si>
   <si>
     <t>74,27%</t>
   </si>
   <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
+    <t>56,67%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
   </si>
   <si>
     <t>72,96%</t>
   </si>
   <si>
-    <t>53,7%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
+    <t>55,05%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
   </si>
   <si>
     <t>73,74%</t>
   </si>
   <si>
-    <t>61,45%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
+    <t>60,39%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
   </si>
   <si>
     <t>25,73%</t>
   </si>
   <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
   </si>
   <si>
     <t>27,04%</t>
   </si>
   <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
   </si>
   <si>
     <t>26,26%</t>
   </si>
   <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
   </si>
   <si>
     <t>97,11%</t>
   </si>
   <si>
-    <t>89,84%</t>
+    <t>91,01%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -754,13 +760,13 @@
     <t>96,73%</t>
   </si>
   <si>
-    <t>89,75%</t>
+    <t>89,67%</t>
   </si>
   <si>
     <t>96,93%</t>
   </si>
   <si>
-    <t>92,74%</t>
+    <t>92,98%</t>
   </si>
   <si>
     <t>99,23%</t>
@@ -772,13 +778,13 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>10,16%</t>
+    <t>8,99%</t>
   </si>
   <si>
     <t>3,27%</t>
   </si>
   <si>
-    <t>10,25%</t>
+    <t>10,33%</t>
   </si>
   <si>
     <t>3,07%</t>
@@ -787,55 +793,61 @@
     <t>0,77%</t>
   </si>
   <si>
-    <t>7,26%</t>
+    <t>7,02%</t>
   </si>
   <si>
     <t>69,42%</t>
   </si>
   <si>
-    <t>75,1%</t>
+    <t>63,92%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
   </si>
   <si>
     <t>72,08%</t>
   </si>
   <si>
-    <t>66,36%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
+    <t>66,65%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
   </si>
   <si>
     <t>70,69%</t>
   </si>
   <si>
-    <t>66,76%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>74,53%</t>
   </si>
   <si>
     <t>30,58%</t>
   </si>
   <si>
-    <t>24,9%</t>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
   </si>
   <si>
     <t>27,92%</t>
   </si>
   <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
   </si>
   <si>
     <t>29,31%</t>
   </si>
   <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
   </si>
   <si>
     <t>Población según si las medicinas para el catarro fueron recetadas por el médico en 2015 (Tasa respuesta: 7,86%)</t>
@@ -844,13 +856,13 @@
     <t>50,45%</t>
   </si>
   <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>71,27%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>69,52%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
   </si>
   <si>
     <t>72,39%</t>
@@ -859,346 +871,352 @@
     <t>55,72%</t>
   </si>
   <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>67,45%</t>
+    <t>43,25%</t>
+  </si>
+  <si>
+    <t>67,11%</t>
   </si>
   <si>
     <t>49,55%</t>
   </si>
   <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
   </si>
   <si>
     <t>27,61%</t>
   </si>
   <si>
-    <t>55,59%</t>
+    <t>56,26%</t>
   </si>
   <si>
     <t>44,28%</t>
   </si>
   <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>55,95%</t>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>56,75%</t>
   </si>
   <si>
     <t>43,95%</t>
   </si>
   <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>58,64%</t>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>57,93%</t>
   </si>
   <si>
     <t>71,74%</t>
   </si>
   <si>
-    <t>58,13%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
+    <t>56,32%</t>
+  </si>
+  <si>
+    <t>81,84%</t>
   </si>
   <si>
     <t>57,28%</t>
   </si>
   <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>66,27%</t>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>67,5%</t>
   </si>
   <si>
     <t>56,05%</t>
   </si>
   <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>69,34%</t>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>69,88%</t>
   </si>
   <si>
     <t>28,26%</t>
   </si>
   <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>41,87%</t>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>43,68%</t>
   </si>
   <si>
     <t>42,72%</t>
   </si>
   <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>53,16%</t>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
   </si>
   <si>
     <t>49,54%</t>
   </si>
   <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>63,65%</t>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>61,91%</t>
   </si>
   <si>
     <t>63,41%</t>
   </si>
   <si>
-    <t>48,75%</t>
-  </si>
-  <si>
-    <t>76,52%</t>
+    <t>50,76%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
   </si>
   <si>
     <t>56,56%</t>
   </si>
   <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>66,94%</t>
+    <t>47,03%</t>
+  </si>
+  <si>
+    <t>65,98%</t>
   </si>
   <si>
     <t>50,46%</t>
   </si>
   <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>65,03%</t>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>66,12%</t>
   </si>
   <si>
     <t>36,59%</t>
   </si>
   <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>49,24%</t>
   </si>
   <si>
     <t>43,44%</t>
   </si>
   <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>53,73%</t>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>52,97%</t>
   </si>
   <si>
     <t>40,02%</t>
   </si>
   <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>55,86%</t>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
   </si>
   <si>
     <t>62,13%</t>
   </si>
   <si>
-    <t>46,25%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
   </si>
   <si>
     <t>51,59%</t>
   </si>
   <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>64,94%</t>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>63,88%</t>
   </si>
   <si>
     <t>59,98%</t>
   </si>
   <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>76,31%</t>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>74,94%</t>
   </si>
   <si>
     <t>37,87%</t>
   </si>
   <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>53,75%</t>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
   </si>
   <si>
     <t>48,41%</t>
   </si>
   <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>60,17%</t>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>59,41%</t>
   </si>
   <si>
     <t>80,02%</t>
   </si>
   <si>
-    <t>63,66%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
+    <t>61,51%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
   </si>
   <si>
     <t>77,09%</t>
   </si>
   <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
+    <t>61,64%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
   </si>
   <si>
     <t>78,47%</t>
   </si>
   <si>
-    <t>67,01%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
   </si>
   <si>
     <t>19,98%</t>
   </si>
   <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
   </si>
   <si>
     <t>22,91%</t>
   </si>
   <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
   </si>
   <si>
     <t>21,53%</t>
   </si>
   <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
   </si>
   <si>
     <t>88,92%</t>
   </si>
   <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
   </si>
   <si>
     <t>66,43%</t>
   </si>
   <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>67,41%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
+    <t>50,83%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>67,75%</t>
+  </si>
+  <si>
+    <t>84,78%</t>
   </si>
   <si>
     <t>11,08%</t>
   </si>
   <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
   </si>
   <si>
     <t>33,57%</t>
   </si>
   <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
   </si>
   <si>
     <t>60,19%</t>
   </si>
   <si>
-    <t>53,79%</t>
-  </si>
-  <si>
-    <t>66,55%</t>
+    <t>53,52%</t>
+  </si>
+  <si>
+    <t>66,59%</t>
   </si>
   <si>
     <t>66,42%</t>
   </si>
   <si>
-    <t>61,11%</t>
-  </si>
-  <si>
-    <t>72,41%</t>
+    <t>60,48%</t>
+  </si>
+  <si>
+    <t>72,23%</t>
   </si>
   <si>
     <t>63,49%</t>
   </si>
   <si>
-    <t>59,27%</t>
-  </si>
-  <si>
-    <t>67,94%</t>
+    <t>59,4%</t>
+  </si>
+  <si>
+    <t>67,82%</t>
   </si>
   <si>
     <t>39,81%</t>
   </si>
   <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>46,21%</t>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>46,48%</t>
   </si>
   <si>
     <t>33,58%</t>
   </si>
   <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>38,89%</t>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
   </si>
   <si>
     <t>36,51%</t>
   </si>
   <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
   </si>
 </sst>
 </file>
@@ -1610,7 +1628,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07450EA5-C2C7-476E-AFF8-CCC183E7D088}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF429E5-F659-4F09-8C3A-268EDD7E84DF}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2357,10 +2375,10 @@
         <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>18</v>
@@ -2369,13 +2387,13 @@
         <v>18292</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>40</v>
@@ -2384,13 +2402,13 @@
         <v>40045</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2405,13 +2423,13 @@
         <v>4609</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -2420,13 +2438,13 @@
         <v>3074</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>8</v>
@@ -2435,13 +2453,13 @@
         <v>7682</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2497,7 +2515,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2509,13 +2527,13 @@
         <v>56554</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>35</v>
@@ -2524,13 +2542,13 @@
         <v>35619</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>93</v>
@@ -2539,13 +2557,13 @@
         <v>92174</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2560,13 +2578,13 @@
         <v>8068</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>10</v>
@@ -2575,13 +2593,13 @@
         <v>9582</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>18</v>
@@ -2590,13 +2608,13 @@
         <v>17650</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2664,13 +2682,13 @@
         <v>170424</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>150</v>
@@ -2679,13 +2697,13 @@
         <v>158002</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>321</v>
@@ -2694,13 +2712,13 @@
         <v>328425</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2715,13 +2733,13 @@
         <v>56296</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>56</v>
@@ -2730,13 +2748,13 @@
         <v>58146</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M23" s="7">
         <v>112</v>
@@ -2745,13 +2763,13 @@
         <v>114443</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2807,7 +2825,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2829,7 +2847,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C913B7F-56A0-4EE0-AACF-C2044224DAB3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B96D41A-AE3F-4B81-8884-16270D747697}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2846,7 +2864,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2953,13 +2971,13 @@
         <v>17187</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H4" s="7">
         <v>32</v>
@@ -2968,13 +2986,13 @@
         <v>33118</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M4" s="7">
         <v>50</v>
@@ -2983,13 +3001,13 @@
         <v>50305</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3004,13 +3022,13 @@
         <v>24303</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H5" s="7">
         <v>18</v>
@@ -3019,13 +3037,13 @@
         <v>18183</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M5" s="7">
         <v>40</v>
@@ -3034,13 +3052,13 @@
         <v>42486</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3108,13 +3126,13 @@
         <v>38596</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H7" s="7">
         <v>31</v>
@@ -3123,13 +3141,13 @@
         <v>33051</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M7" s="7">
         <v>66</v>
@@ -3138,13 +3156,13 @@
         <v>71646</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3159,13 +3177,13 @@
         <v>24969</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H8" s="7">
         <v>24</v>
@@ -3174,13 +3192,13 @@
         <v>23799</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M8" s="7">
         <v>49</v>
@@ -3189,13 +3207,13 @@
         <v>48768</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3263,13 +3281,13 @@
         <v>37367</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H10" s="7">
         <v>35</v>
@@ -3278,13 +3296,13 @@
         <v>35618</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M10" s="7">
         <v>70</v>
@@ -3293,13 +3311,13 @@
         <v>72985</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3314,13 +3332,13 @@
         <v>19304</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H11" s="7">
         <v>16</v>
@@ -3329,13 +3347,13 @@
         <v>16306</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M11" s="7">
         <v>33</v>
@@ -3344,13 +3362,13 @@
         <v>35610</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3418,13 +3436,13 @@
         <v>30741</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H13" s="7">
         <v>28</v>
@@ -3433,13 +3451,13 @@
         <v>31485</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M13" s="7">
         <v>54</v>
@@ -3448,13 +3466,13 @@
         <v>62226</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3469,13 +3487,13 @@
         <v>17272</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H14" s="7">
         <v>14</v>
@@ -3484,13 +3502,13 @@
         <v>14716</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M14" s="7">
         <v>29</v>
@@ -3499,13 +3517,13 @@
         <v>31988</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3573,13 +3591,13 @@
         <v>29665</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H16" s="7">
         <v>18</v>
@@ -3588,13 +3606,13 @@
         <v>19816</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M16" s="7">
         <v>44</v>
@@ -3603,13 +3621,13 @@
         <v>49481</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3624,13 +3642,13 @@
         <v>10278</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -3639,13 +3657,13 @@
         <v>7346</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M17" s="7">
         <v>16</v>
@@ -3654,13 +3672,13 @@
         <v>17624</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3716,7 +3734,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3728,13 +3746,13 @@
         <v>69372</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H19" s="7">
         <v>55</v>
@@ -3743,13 +3761,13 @@
         <v>59508</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="M19" s="7">
         <v>118</v>
@@ -3758,13 +3776,13 @@
         <v>128878</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3779,13 +3797,13 @@
         <v>2067</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -3794,13 +3812,13 @@
         <v>2013</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>243</v>
-      </c>
       <c r="L20" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -3809,13 +3827,13 @@
         <v>4081</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3883,13 +3901,13 @@
         <v>222927</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>152</v>
+        <v>253</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="H22" s="7">
         <v>199</v>
@@ -3898,13 +3916,13 @@
         <v>212595</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="M22" s="7">
         <v>402</v>
@@ -3913,13 +3931,13 @@
         <v>435522</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3934,13 +3952,13 @@
         <v>98194</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>160</v>
+        <v>263</v>
       </c>
       <c r="H23" s="7">
         <v>81</v>
@@ -3949,13 +3967,13 @@
         <v>82363</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="M23" s="7">
         <v>171</v>
@@ -3964,13 +3982,13 @@
         <v>180557</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4026,7 +4044,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -4048,7 +4066,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37972656-210F-42B6-B0DE-A1DDD8FCFEAA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81735BC7-375A-49DC-9855-5712C3185EDA}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4065,7 +4083,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4172,13 +4190,13 @@
         <v>12406</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="H4" s="7">
         <v>28</v>
@@ -4187,13 +4205,13 @@
         <v>26646</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="M4" s="7">
         <v>40</v>
@@ -4202,13 +4220,13 @@
         <v>39052</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4223,13 +4241,13 @@
         <v>12185</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="H5" s="7">
         <v>18</v>
@@ -4238,13 +4256,13 @@
         <v>18844</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="M5" s="7">
         <v>28</v>
@@ -4253,13 +4271,13 @@
         <v>31029</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4327,13 +4345,13 @@
         <v>22269</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="H7" s="7">
         <v>35</v>
@@ -4342,13 +4360,13 @@
         <v>33519</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="M7" s="7">
         <v>55</v>
@@ -4357,13 +4375,13 @@
         <v>55788</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4378,13 +4396,13 @@
         <v>28398</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="H8" s="7">
         <v>14</v>
@@ -4393,13 +4411,13 @@
         <v>13204</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="M8" s="7">
         <v>40</v>
@@ -4408,13 +4426,13 @@
         <v>41601</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4482,13 +4500,13 @@
         <v>24390</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="H10" s="7">
         <v>32</v>
@@ -4497,13 +4515,13 @@
         <v>31981</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="M10" s="7">
         <v>57</v>
@@ -4512,13 +4530,13 @@
         <v>56371</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4533,13 +4551,13 @@
         <v>24847</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="H11" s="7">
         <v>19</v>
@@ -4548,13 +4566,13 @@
         <v>18452</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="M11" s="7">
         <v>43</v>
@@ -4563,13 +4581,13 @@
         <v>43298</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4637,13 +4655,13 @@
         <v>15491</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="H13" s="7">
         <v>24</v>
@@ -4652,13 +4670,13 @@
         <v>26412</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="M13" s="7">
         <v>38</v>
@@ -4667,13 +4685,13 @@
         <v>41904</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4688,13 +4706,13 @@
         <v>23218</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="H14" s="7">
         <v>15</v>
@@ -4703,13 +4721,13 @@
         <v>16098</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="M14" s="7">
         <v>35</v>
@@ -4718,13 +4736,13 @@
         <v>39315</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4792,13 +4810,13 @@
         <v>29572</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="H16" s="7">
         <v>28</v>
@@ -4807,13 +4825,13 @@
         <v>31895</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="M16" s="7">
         <v>54</v>
@@ -4822,13 +4840,13 @@
         <v>61466</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4843,13 +4861,13 @@
         <v>7385</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -4858,13 +4876,13 @@
         <v>9481</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="M17" s="7">
         <v>14</v>
@@ -4873,13 +4891,13 @@
         <v>16866</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4935,7 +4953,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4947,13 +4965,13 @@
         <v>50581</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="H19" s="7">
         <v>34</v>
@@ -4962,13 +4980,13 @@
         <v>41959</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>202</v>
+        <v>363</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="M19" s="7">
         <v>89</v>
@@ -4977,13 +4995,13 @@
         <v>92540</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4998,13 +5016,13 @@
         <v>6305</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="H20" s="7">
         <v>16</v>
@@ -5013,13 +5031,13 @@
         <v>21202</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>212</v>
+        <v>372</v>
       </c>
       <c r="M20" s="7">
         <v>23</v>
@@ -5028,13 +5046,13 @@
         <v>27507</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5102,13 +5120,13 @@
         <v>154709</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="H22" s="7">
         <v>181</v>
@@ -5117,13 +5135,13 @@
         <v>192413</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="M22" s="7">
         <v>333</v>
@@ -5132,13 +5150,13 @@
         <v>347122</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5153,13 +5171,13 @@
         <v>102337</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="H23" s="7">
         <v>90</v>
@@ -5168,13 +5186,13 @@
         <v>97279</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="M23" s="7">
         <v>183</v>
@@ -5183,13 +5201,13 @@
         <v>199616</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5245,7 +5263,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16B01-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16B01-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C9DBE70-BC56-42E6-96A6-33F9FA4BEA80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{53D78B8B-E638-488F-BC34-332041153693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C1574B33-6238-4FDE-975E-5CC8548EAF89}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8D4242BB-D17B-4663-888A-6949EFF535AC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="385">
   <si>
     <t>Población según si las medicinas para el catarro fueron recetadas por el médico en 2007 (Tasa respuesta: 6,65%)</t>
   </si>
@@ -76,1147 +76,1123 @@
     <t>59,55%</t>
   </si>
   <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>57,01%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>69,63%</t>
+  </si>
+  <si>
+    <t>51,37%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>61,74%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>48,63%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>53,71%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>59,35%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>73,49%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>73,4%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>68,63%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>53,26%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>72,28%</t>
+  </si>
+  <si>
+    <t>57,47%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>50,52%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>46,74%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>82,52%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>62,53%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>70,39%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>78,8%</t>
+  </si>
+  <si>
+    <t>65,32%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>75,17%</t>
+  </si>
+  <si>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>66,72%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
+  </si>
+  <si>
+    <t>69,89%</t>
+  </si>
+  <si>
+    <t>78,4%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si las medicinas para el catarro fueron recetadas por el médico en 2012 (Tasa respuesta: 8,81%)</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>56,8%</t>
+  </si>
+  <si>
+    <t>64,56%</t>
+  </si>
+  <si>
+    <t>50,34%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>43,2%</t>
+  </si>
+  <si>
+    <t>73,32%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>49,66%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>56,85%</t>
+  </si>
+  <si>
+    <t>60,72%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>58,14%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>59,5%</t>
+  </si>
+  <si>
+    <t>50,59%</t>
+  </si>
+  <si>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>52,3%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>55,76%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
+  </si>
+  <si>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>56,94%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>44,66%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>64,03%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>68,15%</t>
+  </si>
+  <si>
+    <t>54,36%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>66,05%</t>
+  </si>
+  <si>
+    <t>54,47%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
+  </si>
+  <si>
+    <t>74,27%</t>
+  </si>
+  <si>
+    <t>56,0%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>72,96%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>73,74%</t>
+  </si>
+  <si>
+    <t>60,67%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>66,2%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>66,99%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>Población según si las medicinas para el catarro fueron recetadas por el médico en 2016 (Tasa respuesta: 7,86%)</t>
+  </si>
+  <si>
+    <t>50,45%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>71,17%</t>
+  </si>
+  <si>
+    <t>43,96%</t>
+  </si>
+  <si>
+    <t>73,08%</t>
+  </si>
+  <si>
+    <t>55,72%</t>
+  </si>
+  <si>
+    <t>67,13%</t>
+  </si>
+  <si>
+    <t>49,55%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>56,04%</t>
+  </si>
+  <si>
+    <t>44,28%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>59,3%</t>
+  </si>
+  <si>
+    <t>71,74%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>57,28%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>56,05%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>68,31%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
     <t>42,95%</t>
   </si>
   <si>
-    <t>73,39%</t>
-  </si>
-  <si>
-    <t>70,21%</t>
-  </si>
-  <si>
-    <t>50,51%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>64,44%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>49,49%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>69,63%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>74,61%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
-  </si>
-  <si>
-    <t>54,15%</t>
-  </si>
-  <si>
-    <t>75,38%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>53,78%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>45,85%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>57,85%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>73,49%</t>
-  </si>
-  <si>
-    <t>58,78%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>73,4%</t>
-  </si>
-  <si>
-    <t>62,08%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>41,22%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>68,63%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>52,06%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>72,28%</t>
-  </si>
-  <si>
-    <t>56,23%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>53,54%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>82,52%</t>
-  </si>
-  <si>
-    <t>60,94%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>72,2%</t>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>52,8%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>64,71%</t>
+  </si>
+  <si>
+    <t>63,41%</t>
+  </si>
+  <si>
+    <t>49,21%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>66,34%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>64,82%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>50,79%</t>
+  </si>
+  <si>
+    <t>43,44%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>54,43%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>58,81%</t>
+  </si>
+  <si>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>63,05%</t>
+  </si>
+  <si>
+    <t>59,98%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>74,86%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>55,36%</t>
+  </si>
+  <si>
+    <t>48,41%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>60,18%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
   </si>
   <si>
     <t>92,16%</t>
   </si>
   <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
+    <t>60,4%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
   </si>
   <si>
     <t>7,84%</t>
   </si>
   <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
-  </si>
-  <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>75,73%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>75,17%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>66,99%</t>
-  </si>
-  <si>
-    <t>79,05%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si las medicinas para el catarro fueron recetadas por el médico en 2012 (Tasa respuesta: 8,81%)</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>56,4%</t>
-  </si>
-  <si>
-    <t>64,56%</t>
-  </si>
-  <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>54,21%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>64,0%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>74,68%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>49,66%</t>
-  </si>
-  <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>57,01%</t>
-  </si>
-  <si>
-    <t>60,72%</t>
-  </si>
-  <si>
-    <t>47,04%</t>
-  </si>
-  <si>
-    <t>71,81%</t>
-  </si>
-  <si>
-    <t>58,14%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>71,1%</t>
-  </si>
-  <si>
-    <t>59,5%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>68,08%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>52,96%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>55,5%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>49,56%</t>
-  </si>
-  <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>51,29%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>68,6%</t>
-  </si>
-  <si>
-    <t>54,67%</t>
-  </si>
-  <si>
-    <t>80,11%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>58,01%</t>
-  </si>
-  <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>48,71%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>64,03%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>77,66%</t>
-  </si>
-  <si>
-    <t>68,15%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>66,05%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>47,49%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>74,27%</t>
-  </si>
-  <si>
-    <t>56,67%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>72,96%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>73,74%</t>
-  </si>
-  <si>
-    <t>60,39%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>44,95%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>63,92%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>74,53%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>Población según si las medicinas para el catarro fueron recetadas por el médico en 2015 (Tasa respuesta: 7,86%)</t>
-  </si>
-  <si>
-    <t>50,45%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>69,52%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>72,39%</t>
-  </si>
-  <si>
-    <t>55,72%</t>
-  </si>
-  <si>
-    <t>43,25%</t>
-  </si>
-  <si>
-    <t>67,11%</t>
-  </si>
-  <si>
-    <t>49,55%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>56,26%</t>
-  </si>
-  <si>
-    <t>44,28%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>56,75%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>57,93%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>56,32%</t>
-  </si>
-  <si>
-    <t>81,84%</t>
-  </si>
-  <si>
-    <t>57,28%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>67,5%</t>
-  </si>
-  <si>
-    <t>56,05%</t>
-  </si>
-  <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>69,88%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>61,91%</t>
-  </si>
-  <si>
-    <t>63,41%</t>
-  </si>
-  <si>
-    <t>50,76%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>65,98%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>66,12%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>49,24%</t>
-  </si>
-  <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>52,97%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>63,88%</t>
-  </si>
-  <si>
-    <t>59,98%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>74,94%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>48,41%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>61,51%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>61,64%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>67,17%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
   </si>
   <si>
     <t>21,53%</t>
   </si>
   <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
   </si>
   <si>
     <t>88,92%</t>
   </si>
   <si>
-    <t>79,96%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
   </si>
   <si>
     <t>66,43%</t>
   </si>
   <si>
-    <t>50,83%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>67,75%</t>
-  </si>
-  <si>
-    <t>84,78%</t>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>67,35%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
   </si>
   <si>
     <t>11,08%</t>
   </si>
   <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
   </si>
   <si>
     <t>33,57%</t>
   </si>
   <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
   </si>
   <si>
     <t>60,19%</t>
   </si>
   <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>66,59%</t>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
   </si>
   <si>
     <t>66,42%</t>
   </si>
   <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>72,23%</t>
+    <t>60,68%</t>
+  </si>
+  <si>
+    <t>71,69%</t>
   </si>
   <si>
     <t>63,49%</t>
   </si>
   <si>
-    <t>59,4%</t>
-  </si>
-  <si>
-    <t>67,82%</t>
+    <t>59,37%</t>
+  </si>
+  <si>
+    <t>68,0%</t>
   </si>
   <si>
     <t>39,81%</t>
   </si>
   <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>46,48%</t>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
   </si>
   <si>
     <t>33,58%</t>
   </si>
   <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
   </si>
   <si>
     <t>36,51%</t>
   </si>
   <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
   </si>
 </sst>
 </file>
@@ -1628,7 +1604,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF429E5-F659-4F09-8C3A-268EDD7E84DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8D9447B-7233-4206-AA7C-9E7D8F2EF712}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2847,7 +2823,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B96D41A-AE3F-4B81-8884-16270D747697}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{409602CD-AA06-4F13-8E42-C39650FD8FC9}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3007,7 +2983,7 @@
         <v>153</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>154</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3022,13 +2998,13 @@
         <v>24303</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H5" s="7">
         <v>18</v>
@@ -3037,13 +3013,13 @@
         <v>18183</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M5" s="7">
         <v>40</v>
@@ -3052,13 +3028,13 @@
         <v>42486</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3126,13 +3102,13 @@
         <v>38596</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H7" s="7">
         <v>31</v>
@@ -3141,13 +3117,13 @@
         <v>33051</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M7" s="7">
         <v>66</v>
@@ -3156,13 +3132,13 @@
         <v>71646</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3177,13 +3153,13 @@
         <v>24969</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H8" s="7">
         <v>24</v>
@@ -3192,13 +3168,13 @@
         <v>23799</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M8" s="7">
         <v>49</v>
@@ -3207,13 +3183,13 @@
         <v>48768</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3281,13 +3257,13 @@
         <v>37367</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="H10" s="7">
         <v>35</v>
@@ -3296,13 +3272,13 @@
         <v>35618</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M10" s="7">
         <v>70</v>
@@ -3311,13 +3287,13 @@
         <v>72985</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3332,13 +3308,13 @@
         <v>19304</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="H11" s="7">
         <v>16</v>
@@ -3347,13 +3323,13 @@
         <v>16306</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="M11" s="7">
         <v>33</v>
@@ -3362,13 +3338,13 @@
         <v>35610</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3436,13 +3412,13 @@
         <v>30741</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="H13" s="7">
         <v>28</v>
@@ -3451,13 +3427,13 @@
         <v>31485</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="M13" s="7">
         <v>54</v>
@@ -3466,13 +3442,13 @@
         <v>62226</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3487,13 +3463,13 @@
         <v>17272</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="H14" s="7">
         <v>14</v>
@@ -3502,13 +3478,13 @@
         <v>14716</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="M14" s="7">
         <v>29</v>
@@ -3517,13 +3493,13 @@
         <v>31988</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3591,13 +3567,13 @@
         <v>29665</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="H16" s="7">
         <v>18</v>
@@ -3606,13 +3582,13 @@
         <v>19816</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="M16" s="7">
         <v>44</v>
@@ -3621,13 +3597,13 @@
         <v>49481</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3642,13 +3618,13 @@
         <v>10278</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -3657,13 +3633,13 @@
         <v>7346</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="M17" s="7">
         <v>16</v>
@@ -3672,13 +3648,13 @@
         <v>17624</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3746,13 +3722,13 @@
         <v>69372</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="H19" s="7">
         <v>55</v>
@@ -3761,13 +3737,13 @@
         <v>59508</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M19" s="7">
         <v>118</v>
@@ -3776,13 +3752,13 @@
         <v>128878</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3797,13 +3773,13 @@
         <v>2067</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -3812,13 +3788,13 @@
         <v>2013</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -3827,13 +3803,13 @@
         <v>4081</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3901,13 +3877,13 @@
         <v>222927</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>254</v>
+        <v>126</v>
       </c>
       <c r="H22" s="7">
         <v>199</v>
@@ -3916,13 +3892,13 @@
         <v>212595</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M22" s="7">
         <v>402</v>
@@ -3931,13 +3907,13 @@
         <v>435522</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3952,13 +3928,13 @@
         <v>98194</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>262</v>
+        <v>135</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H23" s="7">
         <v>81</v>
@@ -3967,13 +3943,13 @@
         <v>82363</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="M23" s="7">
         <v>171</v>
@@ -3982,13 +3958,13 @@
         <v>180557</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4066,7 +4042,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81735BC7-375A-49DC-9855-5712C3185EDA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{273FF2E7-455B-4B43-B06E-3ADF50A5887C}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4083,7 +4059,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4190,13 +4166,13 @@
         <v>12406</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="H4" s="7">
         <v>28</v>
@@ -4205,13 +4181,13 @@
         <v>26646</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M4" s="7">
         <v>40</v>
@@ -4220,13 +4196,13 @@
         <v>39052</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>277</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4241,13 +4217,13 @@
         <v>12185</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="H5" s="7">
         <v>18</v>
@@ -4259,10 +4235,10 @@
         <v>146</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="M5" s="7">
         <v>28</v>
@@ -4271,13 +4247,13 @@
         <v>31029</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>286</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4345,13 +4321,13 @@
         <v>22269</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="H7" s="7">
         <v>35</v>
@@ -4360,13 +4336,13 @@
         <v>33519</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="M7" s="7">
         <v>55</v>
@@ -4375,13 +4351,13 @@
         <v>55788</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4396,13 +4372,13 @@
         <v>28398</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="H8" s="7">
         <v>14</v>
@@ -4411,13 +4387,13 @@
         <v>13204</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="M8" s="7">
         <v>40</v>
@@ -4426,13 +4402,13 @@
         <v>41601</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4500,13 +4476,13 @@
         <v>24390</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="H10" s="7">
         <v>32</v>
@@ -4515,13 +4491,13 @@
         <v>31981</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="M10" s="7">
         <v>57</v>
@@ -4530,13 +4506,13 @@
         <v>56371</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4551,13 +4527,13 @@
         <v>24847</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="H11" s="7">
         <v>19</v>
@@ -4566,13 +4542,13 @@
         <v>18452</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="M11" s="7">
         <v>43</v>
@@ -4581,13 +4557,13 @@
         <v>43298</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4655,13 +4631,13 @@
         <v>15491</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="H13" s="7">
         <v>24</v>
@@ -4670,13 +4646,13 @@
         <v>26412</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M13" s="7">
         <v>38</v>
@@ -4685,13 +4661,13 @@
         <v>41904</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4706,13 +4682,13 @@
         <v>23218</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="H14" s="7">
         <v>15</v>
@@ -4721,13 +4697,13 @@
         <v>16098</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="M14" s="7">
         <v>35</v>
@@ -4736,13 +4712,13 @@
         <v>39315</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4810,13 +4786,13 @@
         <v>29572</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="H16" s="7">
         <v>28</v>
@@ -4825,13 +4801,13 @@
         <v>31895</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>344</v>
+        <v>151</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="M16" s="7">
         <v>54</v>
@@ -4840,13 +4816,13 @@
         <v>61466</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4861,13 +4837,13 @@
         <v>7385</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -4876,13 +4852,13 @@
         <v>9481</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>353</v>
+        <v>158</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="M17" s="7">
         <v>14</v>
@@ -4891,13 +4867,13 @@
         <v>16866</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4965,13 +4941,13 @@
         <v>50581</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="H19" s="7">
         <v>34</v>
@@ -4980,13 +4956,13 @@
         <v>41959</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="M19" s="7">
         <v>89</v>
@@ -4995,13 +4971,13 @@
         <v>92540</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>344</v>
+        <v>151</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5016,13 +4992,13 @@
         <v>6305</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H20" s="7">
         <v>16</v>
@@ -5031,13 +5007,13 @@
         <v>21202</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="M20" s="7">
         <v>23</v>
@@ -5046,13 +5022,13 @@
         <v>27507</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>353</v>
+        <v>158</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5120,13 +5096,13 @@
         <v>154709</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="H22" s="7">
         <v>181</v>
@@ -5135,13 +5111,13 @@
         <v>192413</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="M22" s="7">
         <v>333</v>
@@ -5150,13 +5126,13 @@
         <v>347122</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5171,13 +5147,13 @@
         <v>102337</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="H23" s="7">
         <v>90</v>
@@ -5186,13 +5162,13 @@
         <v>97279</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="M23" s="7">
         <v>183</v>
@@ -5201,13 +5177,13 @@
         <v>199616</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16B01-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16B01-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{53D78B8B-E638-488F-BC34-332041153693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{50EE5478-0E20-4E0F-9E1A-79596DFB04EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8D4242BB-D17B-4663-888A-6949EFF535AC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3F25F2AD-23B6-4EA1-97FD-8566227BADAC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="387">
   <si>
     <t>Población según si las medicinas para el catarro fueron recetadas por el médico en 2007 (Tasa respuesta: 6,65%)</t>
   </si>
@@ -70,34 +70,34 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>59,55%</t>
   </si>
   <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
+    <t>42,81%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
   </si>
   <si>
     <t>70,21%</t>
   </si>
   <si>
-    <t>53,32%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
   </si>
   <si>
     <t>64,44%</t>
   </si>
   <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>75,77%</t>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,28 +106,28 @@
     <t>40,45%</t>
   </si>
   <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>57,01%</t>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>57,19%</t>
   </si>
   <si>
     <t>29,79%</t>
   </si>
   <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>46,68%</t>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>47,49%</t>
   </si>
   <si>
     <t>35,56%</t>
   </si>
   <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>46,99%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,55 +139,55 @@
     <t>69,63%</t>
   </si>
   <si>
-    <t>51,37%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
   </si>
   <si>
     <t>61,74%</t>
   </si>
   <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
   </si>
   <si>
     <t>65,06%</t>
   </si>
   <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
+    <t>53,12%</t>
+  </si>
+  <si>
+    <t>74,61%</t>
   </si>
   <si>
     <t>30,37%</t>
   </si>
   <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>48,63%</t>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
   </si>
   <si>
     <t>38,26%</t>
   </si>
   <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>53,71%</t>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>52,84%</t>
   </si>
   <si>
     <t>34,94%</t>
   </si>
   <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>46,88%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -196,55 +196,55 @@
     <t>73,29%</t>
   </si>
   <si>
-    <t>59,35%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
+    <t>56,76%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
   </si>
   <si>
     <t>73,49%</t>
   </si>
   <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
+    <t>57,72%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
   </si>
   <si>
     <t>73,4%</t>
   </si>
   <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
+    <t>62,18%</t>
+  </si>
+  <si>
+    <t>81,75%</t>
   </si>
   <si>
     <t>26,71%</t>
   </si>
   <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>40,65%</t>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>43,24%</t>
   </si>
   <si>
     <t>26,51%</t>
   </si>
   <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>42,28%</t>
   </si>
   <si>
     <t>26,6%</t>
   </si>
   <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -253,55 +253,55 @@
     <t>68,63%</t>
   </si>
   <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
   </si>
   <si>
     <t>76,75%</t>
   </si>
   <si>
-    <t>53,26%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
+    <t>55,6%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
   </si>
   <si>
     <t>72,28%</t>
   </si>
   <si>
-    <t>57,47%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
+    <t>55,56%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
   </si>
   <si>
     <t>31,37%</t>
   </si>
   <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>50,52%</t>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>55,08%</t>
   </si>
   <si>
     <t>23,25%</t>
   </si>
   <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>46,74%</t>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
   </si>
   <si>
     <t>27,72%</t>
   </si>
   <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>42,53%</t>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -310,55 +310,49 @@
     <t>82,52%</t>
   </si>
   <si>
-    <t>63,73%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
+    <t>93,53%</t>
   </si>
   <si>
     <t>85,61%</t>
   </si>
   <si>
-    <t>62,53%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
   </si>
   <si>
     <t>83,9%</t>
   </si>
   <si>
-    <t>70,39%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
+    <t>71,24%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
   </si>
   <si>
     <t>17,48%</t>
   </si>
   <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
+    <t>6,47%</t>
   </si>
   <si>
     <t>14,39%</t>
   </si>
   <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
   </si>
   <si>
     <t>16,1%</t>
   </si>
   <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -367,832 +361,844 @@
     <t>87,52%</t>
   </si>
   <si>
+    <t>77,11%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>78,8%</t>
+  </si>
+  <si>
+    <t>66,29%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>75,17%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>66,96%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si las medicinas para el catarro fueron recetadas por el médico en 2012 (Tasa respuesta: 8,81%)</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>57,9%</t>
+  </si>
+  <si>
+    <t>64,56%</t>
+  </si>
+  <si>
+    <t>50,01%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>63,79%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>74,81%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>49,99%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>60,72%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>73,17%</t>
+  </si>
+  <si>
+    <t>58,14%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>70,1%</t>
+  </si>
+  <si>
+    <t>59,5%</t>
+  </si>
+  <si>
+    <t>49,95%</t>
+  </si>
+  <si>
+    <t>68,44%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>51,91%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>55,39%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>50,05%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>54,1%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>57,59%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>42,41%</t>
+  </si>
+  <si>
+    <t>64,03%</t>
+  </si>
+  <si>
+    <t>47,15%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>68,15%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>66,05%</t>
+  </si>
+  <si>
+    <t>55,06%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>52,85%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>44,94%</t>
+  </si>
+  <si>
+    <t>74,27%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>72,96%</t>
+  </si>
+  <si>
+    <t>53,7%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>73,74%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>66,36%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
+  </si>
+  <si>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>74,33%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>Población según si las medicinas para el catarro fueron recetadas por el médico en 2016 (Tasa respuesta: 7,86%)</t>
+  </si>
+  <si>
+    <t>50,45%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>71,27%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>72,39%</t>
+  </si>
+  <si>
+    <t>55,72%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>67,45%</t>
+  </si>
+  <si>
+    <t>49,55%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>44,28%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>58,64%</t>
+  </si>
+  <si>
+    <t>71,74%</t>
+  </si>
+  <si>
+    <t>58,13%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>57,28%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>56,05%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>69,34%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>41,87%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>53,16%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>63,65%</t>
+  </si>
+  <si>
+    <t>63,41%</t>
+  </si>
+  <si>
+    <t>48,75%</t>
+  </si>
+  <si>
+    <t>76,52%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>43,44%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>55,86%</t>
+  </si>
+  <si>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>64,94%</t>
+  </si>
+  <si>
+    <t>59,98%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
     <t>76,31%</t>
   </si>
   <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
-  </si>
-  <si>
-    <t>65,32%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>75,52%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>75,17%</t>
-  </si>
-  <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>66,72%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>69,89%</t>
-  </si>
-  <si>
-    <t>78,4%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si las medicinas para el catarro fueron recetadas por el médico en 2012 (Tasa respuesta: 8,81%)</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>56,8%</t>
-  </si>
-  <si>
-    <t>64,56%</t>
-  </si>
-  <si>
-    <t>50,34%</t>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>53,75%</t>
+  </si>
+  <si>
+    <t>48,41%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>60,17%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>63,66%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
   </si>
   <si>
     <t>77,09%</t>
   </si>
   <si>
-    <t>54,21%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>73,32%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>67,01%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
   </si>
   <si>
     <t>22,91%</t>
   </si>
   <si>
-    <t>49,66%</t>
-  </si>
-  <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>56,85%</t>
-  </si>
-  <si>
-    <t>60,72%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>73,24%</t>
-  </si>
-  <si>
-    <t>58,14%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>59,5%</t>
-  </si>
-  <si>
-    <t>50,59%</t>
-  </si>
-  <si>
-    <t>67,68%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>52,3%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>55,76%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>49,41%</t>
-  </si>
-  <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
-  </si>
-  <si>
-    <t>68,6%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>56,94%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>48,49%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>44,66%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>64,03%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>68,15%</t>
-  </si>
-  <si>
-    <t>54,36%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>66,05%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>51,33%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>74,27%</t>
-  </si>
-  <si>
-    <t>56,0%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>72,96%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>73,74%</t>
-  </si>
-  <si>
-    <t>60,67%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>66,2%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>66,99%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>Población según si las medicinas para el catarro fueron recetadas por el médico en 2016 (Tasa respuesta: 7,86%)</t>
-  </si>
-  <si>
-    <t>50,45%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>71,17%</t>
-  </si>
-  <si>
-    <t>43,96%</t>
-  </si>
-  <si>
-    <t>73,08%</t>
-  </si>
-  <si>
-    <t>55,72%</t>
-  </si>
-  <si>
-    <t>67,13%</t>
-  </si>
-  <si>
-    <t>49,55%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>56,04%</t>
-  </si>
-  <si>
-    <t>44,28%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>59,3%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>57,28%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>68,21%</t>
-  </si>
-  <si>
-    <t>56,05%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>68,31%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>52,8%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>64,71%</t>
-  </si>
-  <si>
-    <t>63,41%</t>
-  </si>
-  <si>
-    <t>49,21%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>66,34%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>64,82%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>50,79%</t>
-  </si>
-  <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>54,43%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>58,81%</t>
-  </si>
-  <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>63,05%</t>
-  </si>
-  <si>
-    <t>59,98%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>74,86%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>55,36%</t>
-  </si>
-  <si>
-    <t>48,41%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>60,18%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>61,49%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>60,4%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>67,16%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
   </si>
   <si>
     <t>21,53%</t>
   </si>
   <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
   </si>
   <si>
     <t>88,92%</t>
   </si>
   <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
   </si>
   <si>
     <t>66,43%</t>
   </si>
   <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>77,97%</t>
-  </si>
-  <si>
-    <t>67,35%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>67,41%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
   </si>
   <si>
     <t>11,08%</t>
   </si>
   <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
   </si>
   <si>
     <t>33,57%</t>
   </si>
   <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
   </si>
   <si>
     <t>60,19%</t>
   </si>
   <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>66,75%</t>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>66,55%</t>
   </si>
   <si>
     <t>66,42%</t>
   </si>
   <si>
-    <t>60,68%</t>
-  </si>
-  <si>
-    <t>71,69%</t>
+    <t>61,11%</t>
+  </si>
+  <si>
+    <t>72,41%</t>
   </si>
   <si>
     <t>63,49%</t>
   </si>
   <si>
-    <t>59,37%</t>
-  </si>
-  <si>
-    <t>68,0%</t>
+    <t>59,27%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
   </si>
   <si>
     <t>39,81%</t>
   </si>
   <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>46,21%</t>
   </si>
   <si>
     <t>33,58%</t>
   </si>
   <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
   </si>
   <si>
     <t>36,51%</t>
   </si>
   <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
   </si>
 </sst>
 </file>
@@ -1604,7 +1610,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8D9447B-7233-4206-AA7C-9E7D8F2EF712}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0FB4DB0-D7A1-4DE1-BB83-182421639B17}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2351,10 +2357,10 @@
         <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>18</v>
@@ -2363,13 +2369,13 @@
         <v>18292</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>40</v>
@@ -2378,13 +2384,13 @@
         <v>40045</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2399,13 +2405,13 @@
         <v>4609</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
       <c r="G17" s="7" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -2414,13 +2420,13 @@
         <v>3074</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>8</v>
@@ -2429,13 +2435,13 @@
         <v>7682</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2491,7 +2497,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2503,13 +2509,13 @@
         <v>56554</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>35</v>
@@ -2518,13 +2524,13 @@
         <v>35619</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>93</v>
@@ -2533,13 +2539,13 @@
         <v>92174</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2554,13 +2560,13 @@
         <v>8068</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>10</v>
@@ -2569,13 +2575,13 @@
         <v>9582</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>18</v>
@@ -2584,13 +2590,13 @@
         <v>17650</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2658,13 +2664,13 @@
         <v>170424</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>150</v>
@@ -2673,13 +2679,13 @@
         <v>158002</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>321</v>
@@ -2688,13 +2694,13 @@
         <v>328425</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2709,13 +2715,13 @@
         <v>56296</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>56</v>
@@ -2724,13 +2730,13 @@
         <v>58146</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M23" s="7">
         <v>112</v>
@@ -2739,13 +2745,13 @@
         <v>114443</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2801,7 +2807,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2823,7 +2829,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{409602CD-AA06-4F13-8E42-C39650FD8FC9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24E8BE75-ECA4-4954-9846-F3C909C73C4A}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2840,7 +2846,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2947,13 +2953,13 @@
         <v>17187</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H4" s="7">
         <v>32</v>
@@ -2962,13 +2968,13 @@
         <v>33118</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M4" s="7">
         <v>50</v>
@@ -2977,13 +2983,13 @@
         <v>50305</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2998,13 +3004,13 @@
         <v>24303</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H5" s="7">
         <v>18</v>
@@ -3013,13 +3019,13 @@
         <v>18183</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M5" s="7">
         <v>40</v>
@@ -3028,10 +3034,10 @@
         <v>42486</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>161</v>
@@ -3710,7 +3716,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3880,10 +3886,10 @@
         <v>250</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H22" s="7">
         <v>199</v>
@@ -3931,10 +3937,10 @@
         <v>258</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>135</v>
+        <v>259</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>259</v>
+        <v>160</v>
       </c>
       <c r="H23" s="7">
         <v>81</v>
@@ -4020,7 +4026,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -4042,7 +4048,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{273FF2E7-455B-4B43-B06E-3ADF50A5887C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{050213A1-E9D4-4AAD-A872-A22522BC7C30}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4181,7 +4187,7 @@
         <v>26646</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>270</v>
@@ -4199,10 +4205,10 @@
         <v>272</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>273</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4217,13 +4223,13 @@
         <v>12185</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H5" s="7">
         <v>18</v>
@@ -4232,13 +4238,13 @@
         <v>18844</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M5" s="7">
         <v>28</v>
@@ -4247,13 +4253,13 @@
         <v>31029</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>23</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4321,13 +4327,13 @@
         <v>22269</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H7" s="7">
         <v>35</v>
@@ -4336,13 +4342,13 @@
         <v>33519</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="M7" s="7">
         <v>55</v>
@@ -4351,13 +4357,13 @@
         <v>55788</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4372,13 +4378,13 @@
         <v>28398</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="H8" s="7">
         <v>14</v>
@@ -4387,13 +4393,13 @@
         <v>13204</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="M8" s="7">
         <v>40</v>
@@ -4402,13 +4408,13 @@
         <v>41601</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4476,13 +4482,13 @@
         <v>24390</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="H10" s="7">
         <v>32</v>
@@ -4491,13 +4497,13 @@
         <v>31981</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="M10" s="7">
         <v>57</v>
@@ -4506,13 +4512,13 @@
         <v>56371</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4527,13 +4533,13 @@
         <v>24847</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="H11" s="7">
         <v>19</v>
@@ -4542,13 +4548,13 @@
         <v>18452</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="M11" s="7">
         <v>43</v>
@@ -4557,13 +4563,13 @@
         <v>43298</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4631,13 +4637,13 @@
         <v>15491</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="H13" s="7">
         <v>24</v>
@@ -4646,13 +4652,13 @@
         <v>26412</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="M13" s="7">
         <v>38</v>
@@ -4661,13 +4667,13 @@
         <v>41904</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4682,13 +4688,13 @@
         <v>23218</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H14" s="7">
         <v>15</v>
@@ -4697,13 +4703,13 @@
         <v>16098</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="M14" s="7">
         <v>35</v>
@@ -4712,13 +4718,13 @@
         <v>39315</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4786,13 +4792,13 @@
         <v>29572</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="H16" s="7">
         <v>28</v>
@@ -4801,13 +4807,13 @@
         <v>31895</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>151</v>
+        <v>340</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="M16" s="7">
         <v>54</v>
@@ -4816,13 +4822,13 @@
         <v>61466</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4837,13 +4843,13 @@
         <v>7385</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -4852,13 +4858,13 @@
         <v>9481</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>158</v>
+        <v>349</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="M17" s="7">
         <v>14</v>
@@ -4867,13 +4873,13 @@
         <v>16866</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4929,7 +4935,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4941,13 +4947,13 @@
         <v>50581</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="H19" s="7">
         <v>34</v>
@@ -4956,13 +4962,13 @@
         <v>41959</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>355</v>
+        <v>202</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="M19" s="7">
         <v>89</v>
@@ -4971,13 +4977,13 @@
         <v>92540</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>151</v>
+        <v>340</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4992,13 +4998,13 @@
         <v>6305</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="H20" s="7">
         <v>16</v>
@@ -5007,13 +5013,13 @@
         <v>21202</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>364</v>
+        <v>212</v>
       </c>
       <c r="M20" s="7">
         <v>23</v>
@@ -5022,13 +5028,13 @@
         <v>27507</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>158</v>
+        <v>349</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5096,13 +5102,13 @@
         <v>154709</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="H22" s="7">
         <v>181</v>
@@ -5111,13 +5117,13 @@
         <v>192413</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="M22" s="7">
         <v>333</v>
@@ -5126,13 +5132,13 @@
         <v>347122</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5147,13 +5153,13 @@
         <v>102337</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="H23" s="7">
         <v>90</v>
@@ -5162,13 +5168,13 @@
         <v>97279</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="M23" s="7">
         <v>183</v>
@@ -5177,13 +5183,13 @@
         <v>199616</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5239,7 +5245,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16B01-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16B01-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50EE5478-0E20-4E0F-9E1A-79596DFB04EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F8A3431-255D-4218-9E59-A4B3B158361F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3F25F2AD-23B6-4EA1-97FD-8566227BADAC}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{BF251587-6C88-451D-A400-C30330DEEEBA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="434">
   <si>
     <t>Población según si las medicinas para el catarro fueron recetadas por el médico en 2007 (Tasa respuesta: 6,65%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -133,7 +133,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>69,63%</t>
@@ -190,7 +190,7 @@
     <t>46,88%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>73,29%</t>
@@ -247,7 +247,7 @@
     <t>37,82%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>68,63%</t>
@@ -304,7 +304,7 @@
     <t>44,44%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>82,52%</t>
@@ -355,61 +355,118 @@
     <t>28,76%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
-  </si>
-  <si>
-    <t>66,29%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>72,0%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>60,59%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>72,38%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>70,3%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>72,84%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
   </si>
   <si>
     <t>75,17%</t>
@@ -742,52 +799,82 @@
     <t>38,55%</t>
   </si>
   <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
   </si>
   <si>
     <t>69,42%</t>
@@ -1105,46 +1192,100 @@
     <t>32,99%</t>
   </si>
   <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>67,41%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>63,58%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
+  </si>
+  <si>
+    <t>56,54%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>77,66%</t>
+  </si>
+  <si>
+    <t>75,24%</t>
+  </si>
+  <si>
+    <t>62,85%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>60,82%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
   </si>
   <si>
     <t>60,19%</t>
@@ -1610,8 +1751,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0FB4DB0-D7A1-4DE1-BB83-182421639B17}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A710FC6-4791-4BD2-AAA6-2AD5C719E34C}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2503,10 +2644,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="D19" s="7">
-        <v>56554</v>
+        <v>25672</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>106</v>
@@ -2518,10 +2659,10 @@
         <v>108</v>
       </c>
       <c r="H19" s="7">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="I19" s="7">
-        <v>35619</v>
+        <v>22952</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>109</v>
@@ -2533,10 +2674,10 @@
         <v>111</v>
       </c>
       <c r="M19" s="7">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="N19" s="7">
-        <v>92174</v>
+        <v>48624</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>112</v>
@@ -2554,10 +2695,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D20" s="7">
-        <v>8068</v>
+        <v>3697</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>115</v>
@@ -2569,10 +2710,10 @@
         <v>117</v>
       </c>
       <c r="H20" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I20" s="7">
-        <v>9582</v>
+        <v>6197</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>118</v>
@@ -2584,10 +2725,10 @@
         <v>120</v>
       </c>
       <c r="M20" s="7">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="N20" s="7">
-        <v>17650</v>
+        <v>9894</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>121</v>
@@ -2605,10 +2746,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="D21" s="7">
-        <v>64622</v>
+        <v>29369</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2620,10 +2761,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="I21" s="7">
-        <v>45201</v>
+        <v>29149</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2635,10 +2776,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="N21" s="7">
-        <v>109824</v>
+        <v>58518</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2652,55 +2793,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>171</v>
+        <v>32</v>
       </c>
       <c r="D22" s="7">
-        <v>170424</v>
+        <v>30882</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H22" s="7">
-        <v>150</v>
+        <v>11</v>
       </c>
       <c r="I22" s="7">
-        <v>158002</v>
+        <v>12668</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M22" s="7">
-        <v>321</v>
+        <v>43</v>
       </c>
       <c r="N22" s="7">
-        <v>328425</v>
+        <v>43550</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2709,49 +2850,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="D23" s="7">
-        <v>56296</v>
+        <v>4371</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H23" s="7">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="I23" s="7">
-        <v>58146</v>
+        <v>3385</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M23" s="7">
-        <v>112</v>
+        <v>7</v>
       </c>
       <c r="N23" s="7">
-        <v>114443</v>
+        <v>7756</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2760,63 +2901,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>36</v>
+      </c>
+      <c r="D24" s="7">
+        <v>35253</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>14</v>
+      </c>
+      <c r="I24" s="7">
+        <v>16053</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>50</v>
+      </c>
+      <c r="N24" s="7">
+        <v>51306</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>171</v>
+      </c>
+      <c r="D25" s="7">
+        <v>170424</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H25" s="7">
+        <v>150</v>
+      </c>
+      <c r="I25" s="7">
+        <v>158002</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="M25" s="7">
+        <v>321</v>
+      </c>
+      <c r="N25" s="7">
+        <v>328425</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>56</v>
+      </c>
+      <c r="D26" s="7">
+        <v>56296</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H26" s="7">
+        <v>56</v>
+      </c>
+      <c r="I26" s="7">
+        <v>58146</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="M26" s="7">
+        <v>112</v>
+      </c>
+      <c r="N26" s="7">
+        <v>114443</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>227</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>226720</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>206</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>216148</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>433</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>442868</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2829,8 +3126,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24E8BE75-ECA4-4954-9846-F3C909C73C4A}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E98ED6E9-EFE0-423C-BE80-A845599A450A}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2846,7 +3143,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2953,13 +3250,13 @@
         <v>17187</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="H4" s="7">
         <v>32</v>
@@ -2968,13 +3265,13 @@
         <v>33118</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="M4" s="7">
         <v>50</v>
@@ -2983,13 +3280,13 @@
         <v>50305</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3004,13 +3301,13 @@
         <v>24303</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="H5" s="7">
         <v>18</v>
@@ -3019,13 +3316,13 @@
         <v>18183</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="M5" s="7">
         <v>40</v>
@@ -3034,13 +3331,13 @@
         <v>42486</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3108,13 +3405,13 @@
         <v>38596</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="H7" s="7">
         <v>31</v>
@@ -3123,13 +3420,13 @@
         <v>33051</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="M7" s="7">
         <v>66</v>
@@ -3138,13 +3435,13 @@
         <v>71646</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3159,13 +3456,13 @@
         <v>24969</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="H8" s="7">
         <v>24</v>
@@ -3174,13 +3471,13 @@
         <v>23799</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="M8" s="7">
         <v>49</v>
@@ -3189,13 +3486,13 @@
         <v>48768</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3263,13 +3560,13 @@
         <v>37367</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="H10" s="7">
         <v>35</v>
@@ -3278,13 +3575,13 @@
         <v>35618</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="M10" s="7">
         <v>70</v>
@@ -3293,13 +3590,13 @@
         <v>72985</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3314,13 +3611,13 @@
         <v>19304</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="H11" s="7">
         <v>16</v>
@@ -3329,13 +3626,13 @@
         <v>16306</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="M11" s="7">
         <v>33</v>
@@ -3344,13 +3641,13 @@
         <v>35610</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3418,13 +3715,13 @@
         <v>30741</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="H13" s="7">
         <v>28</v>
@@ -3433,13 +3730,13 @@
         <v>31485</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="M13" s="7">
         <v>54</v>
@@ -3448,13 +3745,13 @@
         <v>62226</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3469,13 +3766,13 @@
         <v>17272</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="H14" s="7">
         <v>14</v>
@@ -3484,13 +3781,13 @@
         <v>14716</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="M14" s="7">
         <v>29</v>
@@ -3499,13 +3796,13 @@
         <v>31988</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3573,13 +3870,13 @@
         <v>29665</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="H16" s="7">
         <v>18</v>
@@ -3588,13 +3885,13 @@
         <v>19816</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="M16" s="7">
         <v>44</v>
@@ -3603,13 +3900,13 @@
         <v>49481</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3624,13 +3921,13 @@
         <v>10278</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -3639,13 +3936,13 @@
         <v>7346</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="M17" s="7">
         <v>16</v>
@@ -3654,13 +3951,13 @@
         <v>17624</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3722,49 +4019,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="D19" s="7">
-        <v>69372</v>
+        <v>31011</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="H19" s="7">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="I19" s="7">
-        <v>59508</v>
+        <v>24402</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="M19" s="7">
-        <v>118</v>
+        <v>52</v>
       </c>
       <c r="N19" s="7">
-        <v>128878</v>
+        <v>55413</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3773,49 +4070,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
+        <v>1</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1017</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H20" s="7">
+        <v>1</v>
+      </c>
+      <c r="I20" s="7">
+        <v>937</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="M20" s="7">
         <v>2</v>
       </c>
-      <c r="D20" s="7">
-        <v>2067</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2013</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="M20" s="7">
-        <v>4</v>
-      </c>
       <c r="N20" s="7">
-        <v>4081</v>
+        <v>1954</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3824,10 +4121,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="D21" s="7">
-        <v>71439</v>
+        <v>32028</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -3839,10 +4136,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="I21" s="7">
-        <v>61521</v>
+        <v>25339</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -3854,10 +4151,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>122</v>
+        <v>54</v>
       </c>
       <c r="N21" s="7">
-        <v>132959</v>
+        <v>57367</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3871,55 +4168,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>203</v>
+        <v>34</v>
       </c>
       <c r="D22" s="7">
-        <v>222927</v>
+        <v>38360</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>152</v>
+        <v>268</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="H22" s="7">
-        <v>199</v>
+        <v>32</v>
       </c>
       <c r="I22" s="7">
-        <v>212595</v>
+        <v>35104</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M22" s="7">
-        <v>402</v>
+        <v>66</v>
       </c>
       <c r="N22" s="7">
-        <v>435522</v>
+        <v>73465</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3928,49 +4225,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="D23" s="7">
-        <v>98194</v>
+        <v>1051</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>160</v>
+        <v>274</v>
       </c>
       <c r="H23" s="7">
-        <v>81</v>
+        <v>1</v>
       </c>
       <c r="I23" s="7">
-        <v>82363</v>
+        <v>1077</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>261</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="M23" s="7">
-        <v>171</v>
+        <v>2</v>
       </c>
       <c r="N23" s="7">
-        <v>180557</v>
+        <v>2127</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3979,63 +4276,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>35</v>
+      </c>
+      <c r="D24" s="7">
+        <v>39411</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>33</v>
+      </c>
+      <c r="I24" s="7">
+        <v>36181</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>68</v>
+      </c>
+      <c r="N24" s="7">
+        <v>75592</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>203</v>
+      </c>
+      <c r="D25" s="7">
+        <v>222927</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="H25" s="7">
+        <v>199</v>
+      </c>
+      <c r="I25" s="7">
+        <v>212595</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="M25" s="7">
+        <v>402</v>
+      </c>
+      <c r="N25" s="7">
+        <v>435522</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>90</v>
+      </c>
+      <c r="D26" s="7">
+        <v>98194</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="H26" s="7">
+        <v>81</v>
+      </c>
+      <c r="I26" s="7">
+        <v>82363</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="M26" s="7">
+        <v>171</v>
+      </c>
+      <c r="N26" s="7">
+        <v>180557</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="D24" s="7">
+      <c r="Q26" s="7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>293</v>
+      </c>
+      <c r="D27" s="7">
         <v>321121</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>280</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>294958</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>573</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>616079</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4048,8 +4501,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{050213A1-E9D4-4AAD-A872-A22522BC7C30}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75D41F08-1856-44E4-B06A-77EEAB8D2FB8}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4065,7 +4518,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>266</v>
+        <v>295</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4172,13 +4625,13 @@
         <v>12406</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>267</v>
+        <v>296</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>268</v>
+        <v>297</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>269</v>
+        <v>298</v>
       </c>
       <c r="H4" s="7">
         <v>28</v>
@@ -4187,13 +4640,13 @@
         <v>26646</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>270</v>
+        <v>299</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="M4" s="7">
         <v>40</v>
@@ -4202,13 +4655,13 @@
         <v>39052</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>272</v>
+        <v>301</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>274</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4223,13 +4676,13 @@
         <v>12185</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>275</v>
+        <v>304</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>276</v>
+        <v>305</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>277</v>
+        <v>306</v>
       </c>
       <c r="H5" s="7">
         <v>18</v>
@@ -4238,13 +4691,13 @@
         <v>18844</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>278</v>
+        <v>307</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="M5" s="7">
         <v>28</v>
@@ -4253,13 +4706,13 @@
         <v>31029</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>280</v>
+        <v>309</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>282</v>
+        <v>311</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4327,13 +4780,13 @@
         <v>22269</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>285</v>
+        <v>314</v>
       </c>
       <c r="H7" s="7">
         <v>35</v>
@@ -4342,13 +4795,13 @@
         <v>33519</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>287</v>
+        <v>316</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>288</v>
+        <v>317</v>
       </c>
       <c r="M7" s="7">
         <v>55</v>
@@ -4357,13 +4810,13 @@
         <v>55788</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>289</v>
+        <v>318</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>290</v>
+        <v>319</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>291</v>
+        <v>320</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4378,13 +4831,13 @@
         <v>28398</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>292</v>
+        <v>321</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>293</v>
+        <v>322</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>294</v>
+        <v>323</v>
       </c>
       <c r="H8" s="7">
         <v>14</v>
@@ -4393,13 +4846,13 @@
         <v>13204</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>295</v>
+        <v>324</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>297</v>
+        <v>326</v>
       </c>
       <c r="M8" s="7">
         <v>40</v>
@@ -4408,13 +4861,13 @@
         <v>41601</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>298</v>
+        <v>327</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>299</v>
+        <v>328</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>300</v>
+        <v>329</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4482,13 +4935,13 @@
         <v>24390</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>301</v>
+        <v>330</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>302</v>
+        <v>331</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>303</v>
+        <v>332</v>
       </c>
       <c r="H10" s="7">
         <v>32</v>
@@ -4497,13 +4950,13 @@
         <v>31981</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>304</v>
+        <v>333</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>305</v>
+        <v>334</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>306</v>
+        <v>335</v>
       </c>
       <c r="M10" s="7">
         <v>57</v>
@@ -4512,13 +4965,13 @@
         <v>56371</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>307</v>
+        <v>336</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>308</v>
+        <v>337</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>309</v>
+        <v>338</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4533,13 +4986,13 @@
         <v>24847</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>310</v>
+        <v>339</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>311</v>
+        <v>340</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>312</v>
+        <v>341</v>
       </c>
       <c r="H11" s="7">
         <v>19</v>
@@ -4548,13 +5001,13 @@
         <v>18452</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>313</v>
+        <v>342</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>314</v>
+        <v>343</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>315</v>
+        <v>344</v>
       </c>
       <c r="M11" s="7">
         <v>43</v>
@@ -4563,13 +5016,13 @@
         <v>43298</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>316</v>
+        <v>345</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>317</v>
+        <v>346</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>318</v>
+        <v>347</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4637,13 +5090,13 @@
         <v>15491</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>319</v>
+        <v>348</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>320</v>
+        <v>349</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>321</v>
+        <v>350</v>
       </c>
       <c r="H13" s="7">
         <v>24</v>
@@ -4652,13 +5105,13 @@
         <v>26412</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>322</v>
+        <v>351</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>323</v>
+        <v>352</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>324</v>
+        <v>353</v>
       </c>
       <c r="M13" s="7">
         <v>38</v>
@@ -4667,13 +5120,13 @@
         <v>41904</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>325</v>
+        <v>354</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>326</v>
+        <v>355</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>327</v>
+        <v>356</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4688,13 +5141,13 @@
         <v>23218</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>328</v>
+        <v>357</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>329</v>
+        <v>358</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>330</v>
+        <v>359</v>
       </c>
       <c r="H14" s="7">
         <v>15</v>
@@ -4703,13 +5156,13 @@
         <v>16098</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>331</v>
+        <v>360</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>332</v>
+        <v>361</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>333</v>
+        <v>362</v>
       </c>
       <c r="M14" s="7">
         <v>35</v>
@@ -4718,13 +5171,13 @@
         <v>39315</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>334</v>
+        <v>363</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>335</v>
+        <v>364</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>336</v>
+        <v>365</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4792,13 +5245,13 @@
         <v>29572</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>337</v>
+        <v>366</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>338</v>
+        <v>367</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>339</v>
+        <v>368</v>
       </c>
       <c r="H16" s="7">
         <v>28</v>
@@ -4807,13 +5260,13 @@
         <v>31895</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>340</v>
+        <v>369</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>341</v>
+        <v>370</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>342</v>
+        <v>371</v>
       </c>
       <c r="M16" s="7">
         <v>54</v>
@@ -4822,13 +5275,13 @@
         <v>61466</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>343</v>
+        <v>372</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>344</v>
+        <v>373</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>345</v>
+        <v>374</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4843,13 +5296,13 @@
         <v>7385</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>346</v>
+        <v>375</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>347</v>
+        <v>376</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>348</v>
+        <v>377</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -4858,13 +5311,13 @@
         <v>9481</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>349</v>
+        <v>378</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>350</v>
+        <v>379</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>351</v>
+        <v>380</v>
       </c>
       <c r="M17" s="7">
         <v>14</v>
@@ -4873,13 +5326,13 @@
         <v>16866</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>352</v>
+        <v>381</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>353</v>
+        <v>382</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>354</v>
+        <v>383</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4941,49 +5394,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="D19" s="7">
-        <v>50581</v>
+        <v>20761</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>355</v>
+        <v>384</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>356</v>
+        <v>385</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>357</v>
+        <v>386</v>
       </c>
       <c r="H19" s="7">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I19" s="7">
-        <v>41959</v>
+        <v>21046</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>358</v>
+        <v>387</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>202</v>
+        <v>388</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="M19" s="7">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="N19" s="7">
-        <v>92540</v>
+        <v>41806</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>340</v>
+        <v>389</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>360</v>
+        <v>390</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>361</v>
+        <v>391</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4992,49 +5445,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D20" s="7">
-        <v>6305</v>
+        <v>4655</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>362</v>
+        <v>392</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>363</v>
+        <v>393</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>364</v>
+        <v>394</v>
       </c>
       <c r="H20" s="7">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="I20" s="7">
-        <v>21202</v>
+        <v>6155</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>365</v>
+        <v>395</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>212</v>
+        <v>396</v>
       </c>
       <c r="M20" s="7">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="N20" s="7">
-        <v>27507</v>
+        <v>10810</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>349</v>
+        <v>397</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>367</v>
+        <v>398</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>368</v>
+        <v>399</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5043,10 +5496,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="D21" s="7">
-        <v>56886</v>
+        <v>25416</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5058,10 +5511,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="I21" s="7">
-        <v>63161</v>
+        <v>27201</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -5073,10 +5526,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="N21" s="7">
-        <v>120047</v>
+        <v>52616</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5090,55 +5543,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>152</v>
+        <v>34</v>
       </c>
       <c r="D22" s="7">
-        <v>154709</v>
+        <v>29821</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>369</v>
+        <v>400</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>371</v>
+        <v>255</v>
       </c>
       <c r="H22" s="7">
-        <v>181</v>
+        <v>15</v>
       </c>
       <c r="I22" s="7">
-        <v>192413</v>
+        <v>20913</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>372</v>
+        <v>402</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>373</v>
+        <v>403</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>374</v>
+        <v>404</v>
       </c>
       <c r="M22" s="7">
-        <v>333</v>
+        <v>49</v>
       </c>
       <c r="N22" s="7">
-        <v>347122</v>
+        <v>50734</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>375</v>
+        <v>405</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>376</v>
+        <v>406</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>377</v>
+        <v>407</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5147,49 +5600,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>93</v>
+        <v>2</v>
       </c>
       <c r="D23" s="7">
-        <v>102337</v>
+        <v>1650</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>378</v>
+        <v>408</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>379</v>
+        <v>261</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>380</v>
+        <v>409</v>
       </c>
       <c r="H23" s="7">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="I23" s="7">
-        <v>97279</v>
+        <v>15047</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>381</v>
+        <v>410</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>382</v>
+        <v>411</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>383</v>
+        <v>412</v>
       </c>
       <c r="M23" s="7">
-        <v>183</v>
+        <v>12</v>
       </c>
       <c r="N23" s="7">
-        <v>199616</v>
+        <v>16697</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>384</v>
+        <v>413</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>385</v>
+        <v>414</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5198,63 +5651,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>36</v>
+      </c>
+      <c r="D24" s="7">
+        <v>31471</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>25</v>
+      </c>
+      <c r="I24" s="7">
+        <v>35960</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>61</v>
+      </c>
+      <c r="N24" s="7">
+        <v>67431</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>152</v>
+      </c>
+      <c r="D25" s="7">
+        <v>154709</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="H25" s="7">
+        <v>181</v>
+      </c>
+      <c r="I25" s="7">
+        <v>192413</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="M25" s="7">
+        <v>333</v>
+      </c>
+      <c r="N25" s="7">
+        <v>347122</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>93</v>
+      </c>
+      <c r="D26" s="7">
+        <v>102337</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="H26" s="7">
+        <v>90</v>
+      </c>
+      <c r="I26" s="7">
+        <v>97279</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="M26" s="7">
+        <v>183</v>
+      </c>
+      <c r="N26" s="7">
+        <v>199616</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>245</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>257046</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>271</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>289692</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>516</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>546738</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
